--- a/Lists/voicing.xlsx
+++ b/Lists/voicing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianrl_adm\Experiment_Orthography\Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ortexp\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="351">
   <si>
     <t>trig</t>
   </si>
@@ -1071,13 +1071,19 @@
   </si>
   <si>
     <t>Images/helicopter_pl.jpg</t>
+  </si>
+  <si>
+    <t>Images/basketball.jpg</t>
+  </si>
+  <si>
+    <t>Images/basketball_pl.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1135,7 +1141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1400,15 +1406,15 @@
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -2651,10 +2657,10 @@
         <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>349</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>154</v>
+        <v>350</v>
       </c>
       <c r="F29" t="s">
         <v>185</v>
@@ -2684,7 +2690,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2904,7 +2910,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -2992,7 +2998,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -3036,7 +3042,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -3080,7 +3086,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -3256,7 +3262,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -3300,7 +3306,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>255</v>
       </c>
       <c r="I44" t="str">
-        <f>IF(H44="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" ref="I44:I73" si="0">IF(H44="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J44" t="s">
@@ -3345,7 +3351,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>255</v>
       </c>
       <c r="I45" t="str">
-        <f>IF(H45="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J45" t="s">
@@ -3390,7 +3396,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>256</v>
       </c>
       <c r="I46" t="str">
-        <f>IF(H46="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J46" t="s">
@@ -3435,7 +3441,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -3461,7 +3467,7 @@
         <v>255</v>
       </c>
       <c r="I47" t="str">
-        <f>IF(H47="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J47" t="s">
@@ -3480,7 +3486,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>186</v>
       </c>
@@ -3506,7 +3512,7 @@
         <v>256</v>
       </c>
       <c r="I48" t="str">
-        <f>IF(H48="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J48" t="s">
@@ -3525,7 +3531,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>256</v>
       </c>
       <c r="I49" t="str">
-        <f>IF(H49="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J49" t="s">
@@ -3570,7 +3576,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>190</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>255</v>
       </c>
       <c r="I50" t="str">
-        <f>IF(H50="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J50" t="s">
@@ -3615,7 +3621,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>192</v>
       </c>
@@ -3641,7 +3647,7 @@
         <v>255</v>
       </c>
       <c r="I51" t="str">
-        <f>IF(H51="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J51" t="s">
@@ -3660,7 +3666,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>255</v>
       </c>
       <c r="I52" t="str">
-        <f>IF(H52="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J52" t="s">
@@ -3705,7 +3711,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>255</v>
       </c>
       <c r="I53" t="str">
-        <f>IF(H53="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J53" t="s">
@@ -3750,7 +3756,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>255</v>
       </c>
       <c r="I54" t="str">
-        <f>IF(H54="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J54" t="s">
@@ -3795,7 +3801,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -3821,7 +3827,7 @@
         <v>256</v>
       </c>
       <c r="I55" t="str">
-        <f>IF(H55="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J55" t="s">
@@ -3840,7 +3846,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v>255</v>
       </c>
       <c r="I56" t="str">
-        <f>IF(H56="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J56" t="s">
@@ -3885,7 +3891,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>196</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>256</v>
       </c>
       <c r="I57" t="str">
-        <f>IF(H57="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J57" t="s">
@@ -3930,7 +3936,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>198</v>
       </c>
@@ -3956,7 +3962,7 @@
         <v>255</v>
       </c>
       <c r="I58" t="str">
-        <f>IF(H58="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J58" t="s">
@@ -3975,7 +3981,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>200</v>
       </c>
@@ -4001,7 +4007,7 @@
         <v>255</v>
       </c>
       <c r="I59" t="str">
-        <f>IF(H59="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J59" t="s">
@@ -4020,7 +4026,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v>255</v>
       </c>
       <c r="I60" t="str">
-        <f>IF(H60="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J60" t="s">
@@ -4065,7 +4071,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -4091,7 +4097,7 @@
         <v>255</v>
       </c>
       <c r="I61" t="str">
-        <f>IF(H61="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J61" t="s">
@@ -4110,7 +4116,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -4136,7 +4142,7 @@
         <v>256</v>
       </c>
       <c r="I62" t="str">
-        <f>IF(H62="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J62" t="s">
@@ -4155,7 +4161,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>255</v>
       </c>
       <c r="I63" t="str">
-        <f>IF(H63="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J63" t="s">
@@ -4200,7 +4206,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>255</v>
       </c>
       <c r="I64" t="str">
-        <f>IF(H64="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J64" t="s">
@@ -4245,7 +4251,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>204</v>
       </c>
@@ -4271,7 +4277,7 @@
         <v>255</v>
       </c>
       <c r="I65" t="str">
-        <f>IF(H65="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J65" t="s">
@@ -4290,7 +4296,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>206</v>
       </c>
@@ -4316,7 +4322,7 @@
         <v>255</v>
       </c>
       <c r="I66" t="str">
-        <f>IF(H66="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J66" t="s">
@@ -4335,7 +4341,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>208</v>
       </c>
@@ -4361,7 +4367,7 @@
         <v>255</v>
       </c>
       <c r="I67" t="str">
-        <f>IF(H67="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J67" t="s">
@@ -4380,7 +4386,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -4406,7 +4412,7 @@
         <v>256</v>
       </c>
       <c r="I68" t="str">
-        <f>IF(H68="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J68" t="s">
@@ -4425,7 +4431,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>210</v>
       </c>
@@ -4451,7 +4457,7 @@
         <v>255</v>
       </c>
       <c r="I69" t="str">
-        <f>IF(H69="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J69" t="s">
@@ -4470,7 +4476,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>212</v>
       </c>
@@ -4496,7 +4502,7 @@
         <v>255</v>
       </c>
       <c r="I70" t="str">
-        <f>IF(H70="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J70" t="s">
@@ -4515,7 +4521,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -4541,7 +4547,7 @@
         <v>255</v>
       </c>
       <c r="I71" t="str">
-        <f>IF(H71="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J71" t="s">
@@ -4560,7 +4566,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>52</v>
       </c>
@@ -4586,7 +4592,7 @@
         <v>255</v>
       </c>
       <c r="I72" t="str">
-        <f>IF(H72="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the singular form on your keyboard - then press enter</v>
       </c>
       <c r="J72" t="s">
@@ -4605,7 +4611,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>216</v>
       </c>
@@ -4631,7 +4637,7 @@
         <v>256</v>
       </c>
       <c r="I73" t="str">
-        <f>IF(H73="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <f t="shared" si="0"/>
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
       <c r="J73" t="s">
@@ -4650,7 +4656,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -4676,7 +4682,7 @@
         <v>256</v>
       </c>
       <c r="I74" t="str">
-        <f>IF(H74="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" ref="I74:I103" si="1">IF(H74="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
         <v>Choose the plural form of the word that belongs to the language</v>
       </c>
       <c r="J74" t="s">
@@ -4695,7 +4701,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -4721,7 +4727,7 @@
         <v>255</v>
       </c>
       <c r="I75" t="str">
-        <f>IF(H75="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J75" t="s">
@@ -4740,7 +4746,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>256</v>
       </c>
       <c r="I76" t="str">
-        <f>IF(H76="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
       </c>
       <c r="J76" t="s">
@@ -4785,7 +4791,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -4811,7 +4817,7 @@
         <v>255</v>
       </c>
       <c r="I77" t="str">
-        <f>IF(H77="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J77" t="s">
@@ -4830,7 +4836,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>258</v>
       </c>
@@ -4856,7 +4862,7 @@
         <v>255</v>
       </c>
       <c r="I78" t="str">
-        <f>IF(H78="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J78" t="s">
@@ -4875,7 +4881,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>259</v>
       </c>
@@ -4901,7 +4907,7 @@
         <v>255</v>
       </c>
       <c r="I79" t="str">
-        <f>IF(H79="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J79" t="s">
@@ -4920,7 +4926,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>260</v>
       </c>
@@ -4946,7 +4952,7 @@
         <v>255</v>
       </c>
       <c r="I80" t="str">
-        <f>IF(H80="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J80" t="s">
@@ -4965,7 +4971,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>261</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>255</v>
       </c>
       <c r="I81" t="str">
-        <f>IF(H81="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J81" t="s">
@@ -5010,7 +5016,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -5036,7 +5042,7 @@
         <v>256</v>
       </c>
       <c r="I82" t="str">
-        <f>IF(H82="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
       </c>
       <c r="J82" t="s">
@@ -5055,7 +5061,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -5081,7 +5087,7 @@
         <v>255</v>
       </c>
       <c r="I83" t="str">
-        <f>IF(H83="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J83" t="s">
@@ -5100,7 +5106,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>57</v>
       </c>
@@ -5126,7 +5132,7 @@
         <v>256</v>
       </c>
       <c r="I84" t="str">
-        <f>IF(H84="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
       </c>
       <c r="J84" t="s">
@@ -5145,7 +5151,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -5171,7 +5177,7 @@
         <v>255</v>
       </c>
       <c r="I85" t="str">
-        <f>IF(H85="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J85" t="s">
@@ -5190,7 +5196,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>262</v>
       </c>
@@ -5216,7 +5222,7 @@
         <v>255</v>
       </c>
       <c r="I86" t="str">
-        <f>IF(H86="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J86" t="s">
@@ -5235,7 +5241,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>263</v>
       </c>
@@ -5261,7 +5267,7 @@
         <v>255</v>
       </c>
       <c r="I87" t="str">
-        <f>IF(H87="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J87" t="s">
@@ -5280,7 +5286,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>264</v>
       </c>
@@ -5306,7 +5312,7 @@
         <v>255</v>
       </c>
       <c r="I88" t="str">
-        <f>IF(H88="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J88" t="s">
@@ -5325,7 +5331,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>265</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>255</v>
       </c>
       <c r="I89" t="str">
-        <f>IF(H89="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J89" t="s">
@@ -5370,7 +5376,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>66</v>
       </c>
@@ -5396,7 +5402,7 @@
         <v>256</v>
       </c>
       <c r="I90" t="str">
-        <f>IF(H90="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
       </c>
       <c r="J90" t="s">
@@ -5415,7 +5421,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -5441,7 +5447,7 @@
         <v>255</v>
       </c>
       <c r="I91" t="str">
-        <f>IF(H91="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J91" t="s">
@@ -5460,7 +5466,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -5486,7 +5492,7 @@
         <v>255</v>
       </c>
       <c r="I92" t="str">
-        <f>IF(H92="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J92" t="s">
@@ -5505,7 +5511,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>255</v>
       </c>
       <c r="I93" t="str">
-        <f>IF(H93="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J93" t="s">
@@ -5550,7 +5556,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>266</v>
       </c>
@@ -5576,7 +5582,7 @@
         <v>255</v>
       </c>
       <c r="I94" t="str">
-        <f>IF(H94="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J94" t="s">
@@ -5595,7 +5601,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>267</v>
       </c>
@@ -5621,7 +5627,7 @@
         <v>255</v>
       </c>
       <c r="I95" t="str">
-        <f>IF(H95="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J95" t="s">
@@ -5640,7 +5646,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>268</v>
       </c>
@@ -5666,7 +5672,7 @@
         <v>255</v>
       </c>
       <c r="I96" t="str">
-        <f>IF(H96="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J96" t="s">
@@ -5685,7 +5691,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>269</v>
       </c>
@@ -5711,7 +5717,7 @@
         <v>256</v>
       </c>
       <c r="I97" t="str">
-        <f>IF(H97="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
       </c>
       <c r="J97" t="s">
@@ -5730,7 +5736,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>74</v>
       </c>
@@ -5756,7 +5762,7 @@
         <v>256</v>
       </c>
       <c r="I98" t="str">
-        <f>IF(H98="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
       </c>
       <c r="J98" t="s">
@@ -5775,7 +5781,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>270</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>255</v>
       </c>
       <c r="I99" t="str">
-        <f>IF(H99="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J99" t="s">
@@ -5820,7 +5826,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>50</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>255</v>
       </c>
       <c r="I100" t="str">
-        <f>IF(H100="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J100" t="s">
@@ -5865,7 +5871,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>271</v>
       </c>
@@ -5891,7 +5897,7 @@
         <v>255</v>
       </c>
       <c r="I101" t="str">
-        <f>IF(H101="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J101" t="s">
@@ -5910,7 +5916,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>53</v>
       </c>
@@ -5936,7 +5942,7 @@
         <v>255</v>
       </c>
       <c r="I102" t="str">
-        <f>IF(H102="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the singular form of the word that belongs to the language</v>
       </c>
       <c r="J102" t="s">
@@ -5955,7 +5961,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>272</v>
       </c>
@@ -5981,7 +5987,7 @@
         <v>256</v>
       </c>
       <c r="I103" t="str">
-        <f>IF(H103="pl","Choose the plural form of the word that belongs to the language","Choose the singular form of the word that belongs to the language")</f>
+        <f t="shared" si="1"/>
         <v>Choose the plural form of the word that belongs to the language</v>
       </c>
       <c r="J103" t="s">
